--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Gpc1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H2">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I2">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J2">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N2">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O2">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P2">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q2">
-        <v>23.42460055942543</v>
+        <v>26.2120588941875</v>
       </c>
       <c r="R2">
-        <v>23.42460055942543</v>
+        <v>104.84823557675</v>
       </c>
       <c r="S2">
-        <v>0.004231652855849507</v>
+        <v>0.004457974389775026</v>
       </c>
       <c r="T2">
-        <v>0.004231652855849507</v>
+        <v>0.003723389340798786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H3">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I3">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J3">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N3">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O3">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P3">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q3">
-        <v>238.4626360847167</v>
+        <v>265.2094919126322</v>
       </c>
       <c r="R3">
-        <v>238.4626360847167</v>
+        <v>1591.256951475793</v>
       </c>
       <c r="S3">
-        <v>0.04307826263424849</v>
+        <v>0.04510508417688373</v>
       </c>
       <c r="T3">
-        <v>0.04307826263424849</v>
+        <v>0.05650900216875727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H4">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I4">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J4">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N4">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O4">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P4">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q4">
-        <v>66.60950768387755</v>
+        <v>93.141645264608</v>
       </c>
       <c r="R4">
-        <v>66.60950768387755</v>
+        <v>558.849871587648</v>
       </c>
       <c r="S4">
-        <v>0.01203300405068354</v>
+        <v>0.0158409177580174</v>
       </c>
       <c r="T4">
-        <v>0.01203300405068354</v>
+        <v>0.01984597684004935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H5">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I5">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J5">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N5">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O5">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P5">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q5">
-        <v>45.76403639033416</v>
+        <v>48.79579285802983</v>
       </c>
       <c r="R5">
-        <v>45.76403639033416</v>
+        <v>292.774757148179</v>
       </c>
       <c r="S5">
-        <v>0.008267270760714665</v>
+        <v>0.008298867165222998</v>
       </c>
       <c r="T5">
-        <v>0.008267270760714665</v>
+        <v>0.0103970696695464</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H6">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I6">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J6">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N6">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O6">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P6">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q6">
-        <v>23.85730508904118</v>
+        <v>31.62702828385117</v>
       </c>
       <c r="R6">
-        <v>23.85730508904118</v>
+        <v>189.762169703107</v>
       </c>
       <c r="S6">
-        <v>0.0043098209063075</v>
+        <v>0.005378916730015582</v>
       </c>
       <c r="T6">
-        <v>0.0043098209063075</v>
+        <v>0.006738868194326369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.7905147676913</v>
+        <v>54.5090905</v>
       </c>
       <c r="H7">
-        <v>51.7905147676913</v>
+        <v>109.018181</v>
       </c>
       <c r="I7">
-        <v>0.4899127797438025</v>
+        <v>0.4968355992046299</v>
       </c>
       <c r="J7">
-        <v>0.4899127797438025</v>
+        <v>0.4461306648899931</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N7">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O7">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P7">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q7">
-        <v>2313.827238013959</v>
+        <v>2456.314745965349</v>
       </c>
       <c r="R7">
-        <v>2313.827238013959</v>
+        <v>9825.258983861397</v>
       </c>
       <c r="S7">
-        <v>0.4179927685359989</v>
+        <v>0.4177538389847151</v>
       </c>
       <c r="T7">
-        <v>0.4179927685359989</v>
+        <v>0.348916358676515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H8">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I8">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J8">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N8">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O8">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P8">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q8">
-        <v>2.460182974222561</v>
+        <v>2.76486486725</v>
       </c>
       <c r="R8">
-        <v>2.460182974222561</v>
+        <v>16.5891892035</v>
       </c>
       <c r="S8">
-        <v>0.000444431924564548</v>
+        <v>0.0004702300120393227</v>
       </c>
       <c r="T8">
-        <v>0.000444431924564548</v>
+        <v>0.0005891182613902108</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H9">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I9">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J9">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N9">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O9">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P9">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q9">
-        <v>25.04468393369438</v>
+        <v>27.97446814882067</v>
       </c>
       <c r="R9">
-        <v>25.04468393369438</v>
+        <v>251.770213339386</v>
       </c>
       <c r="S9">
-        <v>0.004524320831982016</v>
+        <v>0.004757713351646479</v>
       </c>
       <c r="T9">
-        <v>0.004524320831982016</v>
+        <v>0.008940908957807797</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H10">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I10">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J10">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N10">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O10">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P10">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q10">
-        <v>6.995704208893538</v>
+        <v>9.824640777343999</v>
       </c>
       <c r="R10">
-        <v>6.995704208893538</v>
+        <v>88.421766996096</v>
       </c>
       <c r="S10">
-        <v>0.001263773596443724</v>
+        <v>0.001670910215444812</v>
       </c>
       <c r="T10">
-        <v>0.001263773596443724</v>
+        <v>0.003140049643342438</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H11">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I11">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J11">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N11">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O11">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P11">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q11">
-        <v>4.806395860351158</v>
+        <v>5.147011682195333</v>
       </c>
       <c r="R11">
-        <v>4.806395860351158</v>
+        <v>46.323105139758</v>
       </c>
       <c r="S11">
-        <v>0.0008682751587247173</v>
+        <v>0.0008753698576569181</v>
       </c>
       <c r="T11">
-        <v>0.0008682751587247173</v>
+        <v>0.001645034415327094</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H12">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I12">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J12">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N12">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O12">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P12">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q12">
-        <v>2.505628031606957</v>
+        <v>3.336039328712666</v>
       </c>
       <c r="R12">
-        <v>2.505628031606957</v>
+        <v>30.024353958414</v>
       </c>
       <c r="S12">
-        <v>0.0004526415717846602</v>
+        <v>0.0005673716036850956</v>
       </c>
       <c r="T12">
-        <v>0.0004526415717846602</v>
+        <v>0.001066230241054418</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.43933043103389</v>
+        <v>5.749654</v>
       </c>
       <c r="H13">
-        <v>5.43933043103389</v>
+        <v>17.248962</v>
       </c>
       <c r="I13">
-        <v>0.05145338877912179</v>
+        <v>0.05240653924154719</v>
       </c>
       <c r="J13">
-        <v>0.05145338877912179</v>
+        <v>0.07058722513194589</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N13">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O13">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P13">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q13">
-        <v>243.0111182392764</v>
+        <v>259.0936626322659</v>
       </c>
       <c r="R13">
-        <v>243.0111182392764</v>
+        <v>1554.561975793596</v>
       </c>
       <c r="S13">
-        <v>0.04389994569562213</v>
+        <v>0.04406494420107456</v>
       </c>
       <c r="T13">
-        <v>0.04389994569562213</v>
+        <v>0.05520588361302393</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H14">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I14">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J14">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N14">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O14">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P14">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q14">
-        <v>8.440934897304793</v>
+        <v>0.1080066087916667</v>
       </c>
       <c r="R14">
-        <v>8.440934897304793</v>
+        <v>0.64803965275</v>
       </c>
       <c r="S14">
-        <v>0.001524854444096259</v>
+        <v>1.836905287995024E-05</v>
       </c>
       <c r="T14">
-        <v>0.001524854444096259</v>
+        <v>2.301330034016668E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H15">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I15">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J15">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N15">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O15">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P15">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q15">
-        <v>85.92879018467882</v>
+        <v>1.092793891409889</v>
       </c>
       <c r="R15">
-        <v>85.92879018467882</v>
+        <v>9.835145022689</v>
       </c>
       <c r="S15">
-        <v>0.01552303141572153</v>
+        <v>0.0001858551898144925</v>
       </c>
       <c r="T15">
-        <v>0.01552303141572153</v>
+        <v>0.0003492674334599001</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H16">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I16">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J16">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N16">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O16">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P16">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q16">
-        <v>24.00239510914097</v>
+        <v>0.3837895101226667</v>
       </c>
       <c r="R16">
-        <v>24.00239510914097</v>
+        <v>3.454105591104</v>
       </c>
       <c r="S16">
-        <v>0.004336031410787735</v>
+        <v>6.527239291265847E-05</v>
       </c>
       <c r="T16">
-        <v>0.004336031410787735</v>
+        <v>0.000122662817062818</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H17">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I17">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J17">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N17">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O17">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P17">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q17">
-        <v>16.49083623982074</v>
+        <v>0.2010627296074444</v>
       </c>
       <c r="R17">
-        <v>16.49083623982074</v>
+        <v>1.809564566467</v>
       </c>
       <c r="S17">
-        <v>0.002979068697139638</v>
+        <v>3.419542520282559E-05</v>
       </c>
       <c r="T17">
-        <v>0.002979068697139638</v>
+        <v>6.426158133427366E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H18">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I18">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J18">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N18">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O18">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P18">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q18">
-        <v>8.596857759467998</v>
+        <v>0.1303189530012222</v>
       </c>
       <c r="R18">
-        <v>8.596857759467998</v>
+        <v>1.172870577011</v>
       </c>
       <c r="S18">
-        <v>0.00155302190092402</v>
+        <v>2.216378947288917E-05</v>
       </c>
       <c r="T18">
-        <v>0.00155302190092402</v>
+        <v>4.16511902232494E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>18.6624468725928</v>
+        <v>0.2246043333333333</v>
       </c>
       <c r="H19">
-        <v>18.6624468725928</v>
+        <v>0.673813</v>
       </c>
       <c r="I19">
-        <v>0.176537562238649</v>
+        <v>0.002047207676958453</v>
       </c>
       <c r="J19">
-        <v>0.176537562238649</v>
+        <v>0.002757417514620988</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>44.6766603574561</v>
+        <v>45.062479</v>
       </c>
       <c r="N19">
-        <v>44.6766603574561</v>
+        <v>90.12495799999999</v>
       </c>
       <c r="O19">
-        <v>0.8531983361499288</v>
+        <v>0.8408291186329754</v>
       </c>
       <c r="P19">
-        <v>0.8531983361499288</v>
+        <v>0.7820945434507416</v>
       </c>
       <c r="Q19">
-        <v>833.7758003658972</v>
+        <v>10.12122805414233</v>
       </c>
       <c r="R19">
-        <v>833.7758003658972</v>
+        <v>60.72736832485399</v>
       </c>
       <c r="S19">
-        <v>0.1506215543699798</v>
+        <v>0.001721351826675637</v>
       </c>
       <c r="T19">
-        <v>0.1506215543699798</v>
+        <v>0.00215656119220058</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H20">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I20">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J20">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.452295186956483</v>
+        <v>0.480875</v>
       </c>
       <c r="N20">
-        <v>0.452295186956483</v>
+        <v>0.96175</v>
       </c>
       <c r="O20">
-        <v>0.008637563727287188</v>
+        <v>0.008972735441887963</v>
       </c>
       <c r="P20">
-        <v>0.008637563727287188</v>
+        <v>0.008345961472334342</v>
       </c>
       <c r="Q20">
-        <v>13.48809971781078</v>
+        <v>0.03521575858333333</v>
       </c>
       <c r="R20">
-        <v>13.48809971781078</v>
+        <v>0.2112945515</v>
       </c>
       <c r="S20">
-        <v>0.002436624502776875</v>
+        <v>5.989264350226706E-06</v>
       </c>
       <c r="T20">
-        <v>0.002436624502776875</v>
+        <v>7.503529997393845E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H21">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I21">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J21">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.60436891107091</v>
+        <v>4.865417666666667</v>
       </c>
       <c r="N21">
-        <v>4.60436891107091</v>
+        <v>14.596253</v>
       </c>
       <c r="O21">
-        <v>0.08793047337278292</v>
+        <v>0.09078472687764562</v>
       </c>
       <c r="P21">
-        <v>0.08793047337278292</v>
+        <v>0.1266646895538805</v>
       </c>
       <c r="Q21">
-        <v>137.308971665196</v>
+        <v>0.3563075101771111</v>
       </c>
       <c r="R21">
-        <v>137.308971665196</v>
+        <v>3.206767591594</v>
       </c>
       <c r="S21">
-        <v>0.02480485849083088</v>
+        <v>6.059843531048582E-05</v>
       </c>
       <c r="T21">
-        <v>0.02480485849083088</v>
+        <v>0.0001138793056772029</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H22">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I22">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J22">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.28613333894551</v>
+        <v>1.708736</v>
       </c>
       <c r="N22">
-        <v>1.28613333894551</v>
+        <v>5.126208</v>
       </c>
       <c r="O22">
-        <v>0.02456152308779563</v>
+        <v>0.03188362062496464</v>
       </c>
       <c r="P22">
-        <v>0.02456152308779563</v>
+        <v>0.04448467321775106</v>
       </c>
       <c r="Q22">
-        <v>38.35436508363073</v>
+        <v>0.1251352939093333</v>
       </c>
       <c r="R22">
-        <v>38.35436508363073</v>
+        <v>1.126217645184</v>
       </c>
       <c r="S22">
-        <v>0.006928714029880628</v>
+        <v>2.128218686508756E-05</v>
       </c>
       <c r="T22">
-        <v>0.006928714029880628</v>
+        <v>3.999444294346796E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H23">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I23">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J23">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.883637411128482</v>
+        <v>0.8951863333333333</v>
       </c>
       <c r="N23">
-        <v>0.883637411128482</v>
+        <v>2.685559</v>
       </c>
       <c r="O23">
-        <v>0.01687498490045104</v>
+        <v>0.01670344713323365</v>
       </c>
       <c r="P23">
-        <v>0.01687498490045104</v>
+        <v>0.02330498772620821</v>
       </c>
       <c r="Q23">
-        <v>26.35135163805282</v>
+        <v>0.06555688235355556</v>
       </c>
       <c r="R23">
-        <v>26.35135163805282</v>
+        <v>0.5900119411820001</v>
       </c>
       <c r="S23">
-        <v>0.004760370283872022</v>
+        <v>1.114948290729086E-05</v>
       </c>
       <c r="T23">
-        <v>0.004760370283872022</v>
+        <v>2.095260984275645E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>29.8214531279293</v>
+        <v>0.07323266666666667</v>
       </c>
       <c r="H24">
-        <v>29.8214531279293</v>
+        <v>0.219698</v>
       </c>
       <c r="I24">
-        <v>0.2820962692384267</v>
+        <v>0.0006674959257426293</v>
       </c>
       <c r="J24">
-        <v>0.2820962692384267</v>
+        <v>0.0008990611833360319</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.460650086141337</v>
+        <v>0.5802156666666667</v>
       </c>
       <c r="N24">
-        <v>0.460650086141337</v>
+        <v>1.740647</v>
       </c>
       <c r="O24">
-        <v>0.008797118761754489</v>
+        <v>0.01082635128929275</v>
       </c>
       <c r="P24">
-        <v>0.008797118761754489</v>
+        <v>0.01510514457908433</v>
       </c>
       <c r="Q24">
-        <v>13.73725495224047</v>
+        <v>0.04249074051177778</v>
       </c>
       <c r="R24">
-        <v>13.73725495224047</v>
+        <v>0.382416664606</v>
       </c>
       <c r="S24">
-        <v>0.002481634382738309</v>
+        <v>7.226545376261374E-06</v>
       </c>
       <c r="T24">
-        <v>0.002481634382738309</v>
+        <v>1.358044915973341E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07323266666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.219698</v>
+      </c>
+      <c r="I25">
+        <v>0.0006674959257426293</v>
+      </c>
+      <c r="J25">
+        <v>0.0008990611833360319</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>45.062479</v>
+      </c>
+      <c r="N25">
+        <v>90.12495799999999</v>
+      </c>
+      <c r="O25">
+        <v>0.8408291186329754</v>
+      </c>
+      <c r="P25">
+        <v>0.7820945434507416</v>
+      </c>
+      <c r="Q25">
+        <v>3.300045503780666</v>
+      </c>
+      <c r="R25">
+        <v>19.800273022684</v>
+      </c>
+      <c r="S25">
+        <v>0.000561250010933277</v>
+      </c>
+      <c r="T25">
+        <v>0.0007031508457154774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H26">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I26">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J26">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.480875</v>
+      </c>
+      <c r="N26">
+        <v>0.96175</v>
+      </c>
+      <c r="O26">
+        <v>0.008972735441887963</v>
+      </c>
+      <c r="P26">
+        <v>0.008345961472334342</v>
+      </c>
+      <c r="Q26">
+        <v>9.084325676166669</v>
+      </c>
+      <c r="R26">
+        <v>54.505954057</v>
+      </c>
+      <c r="S26">
+        <v>0.001545002297461915</v>
+      </c>
+      <c r="T26">
+        <v>0.001935625213238262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H27">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I27">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J27">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.865417666666667</v>
+      </c>
+      <c r="N27">
+        <v>14.596253</v>
+      </c>
+      <c r="O27">
+        <v>0.09078472687764562</v>
+      </c>
+      <c r="P27">
+        <v>0.1266646895538805</v>
+      </c>
+      <c r="Q27">
+        <v>91.91377932846358</v>
+      </c>
+      <c r="R27">
+        <v>827.2240139561721</v>
+      </c>
+      <c r="S27">
+        <v>0.0156320904041836</v>
+      </c>
+      <c r="T27">
+        <v>0.02937652750257823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H28">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I28">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J28">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.708736</v>
+      </c>
+      <c r="N28">
+        <v>5.126208</v>
+      </c>
+      <c r="O28">
+        <v>0.03188362062496464</v>
+      </c>
+      <c r="P28">
+        <v>0.04448467321775106</v>
+      </c>
+      <c r="Q28">
+        <v>32.28014415095468</v>
+      </c>
+      <c r="R28">
+        <v>290.5212973585921</v>
+      </c>
+      <c r="S28">
+        <v>0.005489994376409424</v>
+      </c>
+      <c r="T28">
+        <v>0.01031704440145951</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H29">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I29">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J29">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.8951863333333333</v>
+      </c>
+      <c r="N29">
+        <v>2.685559</v>
+      </c>
+      <c r="O29">
+        <v>0.01670344713323365</v>
+      </c>
+      <c r="P29">
+        <v>0.02330498772620821</v>
+      </c>
+      <c r="Q29">
+        <v>16.91118106130178</v>
+      </c>
+      <c r="R29">
+        <v>152.200629551716</v>
+      </c>
+      <c r="S29">
+        <v>0.002876142327333521</v>
+      </c>
+      <c r="T29">
+        <v>0.005404976045790415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H30">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I30">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J30">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.5802156666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.740647</v>
+      </c>
+      <c r="O30">
+        <v>0.01082635128929275</v>
+      </c>
+      <c r="P30">
+        <v>0.01510514457908433</v>
+      </c>
+      <c r="Q30">
+        <v>10.96099418438089</v>
+      </c>
+      <c r="R30">
+        <v>98.64894765942802</v>
+      </c>
+      <c r="S30">
+        <v>0.001864173720870073</v>
+      </c>
+      <c r="T30">
+        <v>0.003503239116763754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>18.89124133333334</v>
+      </c>
+      <c r="H31">
+        <v>56.67372400000001</v>
+      </c>
+      <c r="I31">
+        <v>0.1721885491295427</v>
+      </c>
+      <c r="J31">
+        <v>0.2319235740129618</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>45.062479</v>
+      </c>
+      <c r="N31">
+        <v>90.12495799999999</v>
+      </c>
+      <c r="O31">
+        <v>0.8408291186329754</v>
+      </c>
+      <c r="P31">
+        <v>0.7820945434507416</v>
+      </c>
+      <c r="Q31">
+        <v>851.2861658672654</v>
+      </c>
+      <c r="R31">
+        <v>5107.716995203592</v>
+      </c>
+      <c r="S31">
+        <v>0.1447811460032842</v>
+      </c>
+      <c r="T31">
+        <v>0.1813861617331316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>30.264707</v>
+      </c>
+      <c r="H32">
+        <v>60.529414</v>
+      </c>
+      <c r="I32">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J32">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.480875</v>
+      </c>
+      <c r="N32">
+        <v>0.96175</v>
+      </c>
+      <c r="O32">
+        <v>0.008972735441887963</v>
+      </c>
+      <c r="P32">
+        <v>0.008345961472334342</v>
+      </c>
+      <c r="Q32">
+        <v>14.553540978625</v>
+      </c>
+      <c r="R32">
+        <v>58.21416391450001</v>
+      </c>
+      <c r="S32">
+        <v>0.002475170425381523</v>
+      </c>
+      <c r="T32">
+        <v>0.002067311826569523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>30.264707</v>
+      </c>
+      <c r="H33">
+        <v>60.529414</v>
+      </c>
+      <c r="I33">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J33">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.865417666666667</v>
+      </c>
+      <c r="N33">
+        <v>14.596253</v>
+      </c>
+      <c r="O33">
+        <v>0.09078472687764562</v>
+      </c>
+      <c r="P33">
+        <v>0.1266646895538805</v>
+      </c>
+      <c r="Q33">
+        <v>147.2504401142903</v>
+      </c>
+      <c r="R33">
+        <v>883.5026406857421</v>
+      </c>
+      <c r="S33">
+        <v>0.02504338531980684</v>
+      </c>
+      <c r="T33">
+        <v>0.03137510418560008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>30.264707</v>
+      </c>
+      <c r="H34">
+        <v>60.529414</v>
+      </c>
+      <c r="I34">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J34">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.708736</v>
+      </c>
+      <c r="N34">
+        <v>5.126208</v>
+      </c>
+      <c r="O34">
+        <v>0.03188362062496464</v>
+      </c>
+      <c r="P34">
+        <v>0.04448467321775106</v>
+      </c>
+      <c r="Q34">
+        <v>51.714394380352</v>
+      </c>
+      <c r="R34">
+        <v>310.286366282112</v>
+      </c>
+      <c r="S34">
+        <v>0.008795243695315254</v>
+      </c>
+      <c r="T34">
+        <v>0.01101894507289348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>29.8214531279293</v>
-      </c>
-      <c r="H25">
-        <v>29.8214531279293</v>
-      </c>
-      <c r="I25">
-        <v>0.2820962692384267</v>
-      </c>
-      <c r="J25">
-        <v>0.2820962692384267</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>44.6766603574561</v>
-      </c>
-      <c r="N25">
-        <v>44.6766603574561</v>
-      </c>
-      <c r="O25">
-        <v>0.8531983361499288</v>
-      </c>
-      <c r="P25">
-        <v>0.8531983361499288</v>
-      </c>
-      <c r="Q25">
-        <v>1332.322932762294</v>
-      </c>
-      <c r="R25">
-        <v>1332.322932762294</v>
-      </c>
-      <c r="S25">
-        <v>0.240684067548328</v>
-      </c>
-      <c r="T25">
-        <v>0.240684067548328</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>30.264707</v>
+      </c>
+      <c r="H35">
+        <v>60.529414</v>
+      </c>
+      <c r="I35">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J35">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.8951863333333333</v>
+      </c>
+      <c r="N35">
+        <v>2.685559</v>
+      </c>
+      <c r="O35">
+        <v>0.01670344713323365</v>
+      </c>
+      <c r="P35">
+        <v>0.02330498772620821</v>
+      </c>
+      <c r="Q35">
+        <v>27.09255208873767</v>
+      </c>
+      <c r="R35">
+        <v>162.555312532426</v>
+      </c>
+      <c r="S35">
+        <v>0.004607722874910096</v>
+      </c>
+      <c r="T35">
+        <v>0.005772693404367269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>30.264707</v>
+      </c>
+      <c r="H36">
+        <v>60.529414</v>
+      </c>
+      <c r="I36">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J36">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.5802156666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.740647</v>
+      </c>
+      <c r="O36">
+        <v>0.01082635128929275</v>
+      </c>
+      <c r="P36">
+        <v>0.01510514457908433</v>
+      </c>
+      <c r="Q36">
+        <v>17.56005714847634</v>
+      </c>
+      <c r="R36">
+        <v>105.360342890858</v>
+      </c>
+      <c r="S36">
+        <v>0.002986498899872852</v>
+      </c>
+      <c r="T36">
+        <v>0.003741575387556808</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>30.264707</v>
+      </c>
+      <c r="H37">
+        <v>60.529414</v>
+      </c>
+      <c r="I37">
+        <v>0.2758546088215792</v>
+      </c>
+      <c r="J37">
+        <v>0.2477020572671421</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>45.062479</v>
+      </c>
+      <c r="N37">
+        <v>90.12495799999999</v>
+      </c>
+      <c r="O37">
+        <v>0.8408291186329754</v>
+      </c>
+      <c r="P37">
+        <v>0.7820945434507416</v>
+      </c>
+      <c r="Q37">
+        <v>1363.802723628653</v>
+      </c>
+      <c r="R37">
+        <v>5455.210894514612</v>
+      </c>
+      <c r="S37">
+        <v>0.2319465876062926</v>
+      </c>
+      <c r="T37">
+        <v>0.1937264273901549</v>
       </c>
     </row>
   </sheetData>
